--- a/Training 2/UIpath_test2.xlsx
+++ b/Training 2/UIpath_test2.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\RPA\RPA_Hackaton\Training 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD1000-391F-4676-AB7B-98B29E6DDC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ECD023-FEC3-4D7B-B911-A088A2757379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{097F37C6-DE10-43BE-A1C6-90A66CE40617}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{097F37C6-DE10-43BE-A1C6-90A66CE40617}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,7 +399,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="D1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
